--- a/bin/excel/SpanishEnglish-SUSTANTIVESABSTRACTOS1.xlsx
+++ b/bin/excel/SpanishEnglish-SUSTANTIVESABSTRACTOS1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DETPC\Documents\JavaVSCodeProjects\LecturaImagenes\ReadingImages\src\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A53922C-2FB4-4EB2-8D0E-83B0BED8CD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F081E2-9115-46AE-9A86-7CC784F125EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10065" yWindow="3735" windowWidth="10425" windowHeight="7065" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{48FDB698-C550-483D-A239-C921E9EAE320}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>español</t>
   </si>
@@ -81,9 +81,6 @@
     <t>glitch</t>
   </si>
   <si>
-    <t>clashes</t>
-  </si>
-  <si>
     <t>full swing</t>
   </si>
   <si>
@@ -322,6 +319,18 @@
   </si>
   <si>
     <t>fiver</t>
+  </si>
+  <si>
+    <t>clash</t>
+  </si>
+  <si>
+    <t>skyline</t>
+  </si>
+  <si>
+    <t>horizonte</t>
+  </si>
+  <si>
+    <t>esk'ailain</t>
   </si>
 </sst>
 </file>
@@ -679,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E80C80-05A9-4CA4-AEA0-B97E37B4C112}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -710,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -724,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -738,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -752,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -766,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -780,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -794,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -808,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -822,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -836,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -850,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -864,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -878,10 +887,10 @@
         <v>0</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
@@ -892,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
@@ -920,13 +929,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -948,13 +957,13 @@
         <v>0</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -962,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -976,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -990,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
         <v>42</v>
-      </c>
-      <c r="D22" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1004,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1018,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1032,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,13 +1055,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" t="s">
         <v>53</v>
-      </c>
-      <c r="D26" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1060,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1074,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1088,13 +1097,13 @@
         <v>0</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1102,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1116,13 +1125,13 @@
         <v>0</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1130,13 +1139,27 @@
         <v>0</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
